--- a/LR2/LR_2.xlsx
+++ b/LR2/LR_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\text_analysis\LR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4760B712-27BD-4FFE-A214-49232D7B23D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E547C2-5BEC-45FC-8249-1FA478F05FF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
   <si>
     <t>Стемминг</t>
   </si>
@@ -627,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +641,7 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -666,8 +666,32 @@
       <c r="H1" s="15" t="s">
         <v>11</v>
       </c>
+      <c r="J1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -692,8 +716,32 @@
       <c r="H2" s="9">
         <v>0.9</v>
       </c>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="9">
+        <v>10000</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -718,8 +766,32 @@
       <c r="H3" s="3">
         <v>0.86</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0.85726000000000002</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -744,8 +816,32 @@
       <c r="H4" s="3">
         <v>0.9</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0.90595999999999999</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.91</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -770,8 +866,32 @@
       <c r="H5" s="3">
         <v>0.91</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.91351000000000004</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.92</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -796,8 +916,32 @@
       <c r="H6" s="3">
         <v>0.9</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.91854999999999998</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.92</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -822,8 +966,32 @@
       <c r="H7" s="3">
         <v>0.69</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -848,8 +1016,32 @@
       <c r="H8" s="3">
         <v>0.87</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0.88329100000000005</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.88</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -872,11 +1064,47 @@
         <v>0.91</v>
       </c>
       <c r="H9" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.91266999999999998</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="Q9" s="6">
         <v>0.91</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:H9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:Q9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/LR2/LR_2.xlsx
+++ b/LR2/LR_2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\text_analysis\LR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E547C2-5BEC-45FC-8249-1FA478F05FF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB83400C-BFEE-43EE-A86D-C8DD9E0CF777}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
   <si>
     <t>Стемминг</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t>precision</t>
+  </si>
+  <si>
+    <t>GaussianNB</t>
+  </si>
+  <si>
+    <t>MultinomialNB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">да </t>
+  </si>
+  <si>
+    <t>td-idf</t>
+  </si>
+  <si>
+    <t>dict_vol</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Лучшая</t>
   </si>
 </sst>
 </file>
@@ -79,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +113,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -325,28 +358,301 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -627,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,109 +945,121 @@
     <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:19" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="23">
         <v>10000</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="31">
         <v>0.90007999999999999</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="22">
         <v>0.9</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="22">
         <v>0.9</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="23">
         <v>0.9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="23">
         <v>10000</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="31">
         <v>0.89</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="22">
         <v>0.89</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="22">
         <v>0.89</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="23">
         <v>0.89</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -754,17 +1072,17 @@
       <c r="D3" s="3">
         <v>10000</v>
       </c>
-      <c r="E3" s="11">
-        <v>0.85558000000000001</v>
+      <c r="E3" s="10">
+        <v>0.89168000000000003</v>
       </c>
       <c r="F3" s="1">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="G3" s="1">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="H3" s="3">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>6</v>
@@ -778,22 +1096,22 @@
       <c r="M3" s="3">
         <v>10000</v>
       </c>
-      <c r="N3" s="11">
-        <v>0.85726000000000002</v>
+      <c r="N3" s="10">
+        <v>0.88915999999999995</v>
       </c>
       <c r="O3" s="1">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="P3" s="1">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -804,20 +1122,20 @@
       <c r="D4" s="3">
         <v>10000</v>
       </c>
-      <c r="E4" s="11">
-        <v>0.90263000000000004</v>
+      <c r="E4" s="10">
+        <v>0.89</v>
       </c>
       <c r="F4" s="1">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G4" s="1">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="H4" s="3">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>6</v>
@@ -828,11 +1146,11 @@
       <c r="M4" s="3">
         <v>10000</v>
       </c>
-      <c r="N4" s="11">
-        <v>0.90595999999999999</v>
+      <c r="N4" s="10">
+        <v>0.91435</v>
       </c>
       <c r="O4" s="1">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="P4" s="1">
         <v>0.91</v>
@@ -841,9 +1159,9 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -854,20 +1172,20 @@
       <c r="D5" s="3">
         <v>10000</v>
       </c>
-      <c r="E5" s="11">
-        <v>0.90680000000000005</v>
+      <c r="E5" s="10">
+        <v>0.9</v>
       </c>
       <c r="F5" s="1">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G5" s="1">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="H5" s="3">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>6</v>
@@ -878,8 +1196,8 @@
       <c r="M5" s="3">
         <v>10000</v>
       </c>
-      <c r="N5" s="11">
-        <v>0.91351000000000004</v>
+      <c r="N5" s="10">
+        <v>0.91686999999999996</v>
       </c>
       <c r="O5" s="1">
         <v>0.92</v>
@@ -887,13 +1205,13 @@
       <c r="P5" s="1">
         <v>0.92</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="3">
         <v>0.92</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -904,20 +1222,20 @@
       <c r="D6" s="3">
         <v>10000</v>
       </c>
-      <c r="E6" s="11">
-        <v>0.89503999999999995</v>
+      <c r="E6" s="10">
+        <v>0.88245099999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G6" s="1">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="H6" s="3">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>6</v>
@@ -928,22 +1246,22 @@
       <c r="M6" s="3">
         <v>10000</v>
       </c>
-      <c r="N6" s="11">
-        <v>0.91854999999999998</v>
+      <c r="N6" s="10">
+        <v>0.92779</v>
       </c>
       <c r="O6" s="1">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="P6" s="1">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -954,20 +1272,20 @@
       <c r="D7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="11">
-        <v>0.69437000000000004</v>
+      <c r="E7" s="10">
+        <v>0.71955999999999998</v>
       </c>
       <c r="F7" s="1">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="G7" s="1">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="H7" s="3">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>6</v>
@@ -978,46 +1296,46 @@
       <c r="M7" s="3">
         <v>100</v>
       </c>
-      <c r="N7" s="11">
-        <v>0.70779999999999998</v>
+      <c r="N7" s="10">
+        <v>0.75146000000000002</v>
       </c>
       <c r="O7" s="1">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="P7" s="1">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:19" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="35">
         <v>1000</v>
       </c>
-      <c r="E8" s="11">
-        <v>0.86817</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="36">
+        <v>0.87404999999999999</v>
+      </c>
+      <c r="F8" s="34">
         <v>0.88</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.87</v>
+      <c r="G8" s="34">
+        <v>0.88</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0.88</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>6</v>
@@ -1028,72 +1346,202 @@
       <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="11">
-        <v>0.88329100000000005</v>
+      <c r="N8" s="10">
+        <v>0.88748899999999997</v>
       </c>
       <c r="O8" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="40">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0.91</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="35">
+        <v>5000</v>
+      </c>
+      <c r="N9" s="36">
+        <v>0.92442999999999997</v>
+      </c>
+      <c r="O9" s="34">
+        <v>0.93</v>
+      </c>
+      <c r="P9" s="34">
+        <v>0.92</v>
+      </c>
+      <c r="Q9" s="35">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.88245099999999999</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.88</v>
       </c>
-      <c r="P8" s="1">
+      <c r="G10" s="7">
         <v>0.88</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="H10" s="8">
         <v>0.88</v>
       </c>
+      <c r="J10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="40">
+        <v>10000</v>
+      </c>
+      <c r="N10" s="41">
+        <v>0.92779</v>
+      </c>
+      <c r="O10" s="39">
+        <v>0.93</v>
+      </c>
+      <c r="P10" s="39">
+        <v>0.93</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>0.93</v>
+      </c>
+      <c r="R10" s="42" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
+    <row r="11" spans="1:19" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.90680000000000005</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="6">
-        <v>5000</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0.91266999999999998</v>
-      </c>
-      <c r="O9" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0.91</v>
+      <c r="D11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0.92610999999999999</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0.93</v>
+      </c>
+      <c r="P11" s="17">
+        <v>0.93</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="K12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
   <conditionalFormatting sqref="E2:H9">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1104,7 +1552,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:Q9">
+  <conditionalFormatting sqref="N2:Q5 N7:Q11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:Q6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:Q11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:H11">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:H11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:H9 E11:H11">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:H10">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:H10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:H11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
